--- a/data/annotations/new_annotation_structure_out/iteration_3/iteration_3_mistral-large-2411-3.xlsx
+++ b/data/annotations/new_annotation_structure_out/iteration_3/iteration_3_mistral-large-2411-3.xlsx
@@ -1519,7 +1519,7 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1840,10 +1840,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2467,10 +2467,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>1</v>
@@ -3403,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -3415,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" t="n">
         <v>1</v>
@@ -3781,7 +3781,7 @@
         </is>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -4417,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
@@ -4660,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="R54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S54" t="n">
         <v>0</v>
@@ -4729,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P55" t="n">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -4798,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -5431,7 +5431,7 @@
         <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P64" t="n">
         <v>0</v>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="R64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S64" t="n">
         <v>0</v>
@@ -5821,7 +5821,7 @@
         <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P69" t="n">
         <v>0</v>
@@ -5833,7 +5833,7 @@
         <v>0</v>
       </c>
       <c r="S69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T69" t="n">
         <v>0</v>
@@ -6295,7 +6295,7 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R75" t="n">
         <v>0</v>
@@ -6367,7 +6367,7 @@
         <v>0</v>
       </c>
       <c r="O76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P76" t="n">
         <v>0</v>
@@ -6670,7 +6670,7 @@
         <v>1</v>
       </c>
       <c r="L80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M80" t="n">
         <v>0</v>
@@ -6841,7 +6841,7 @@
         <v>0</v>
       </c>
       <c r="Q82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R82" t="n">
         <v>0</v>
@@ -6913,7 +6913,7 @@
         <v>0</v>
       </c>
       <c r="O83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P83" t="n">
         <v>0</v>
@@ -6922,7 +6922,7 @@
         <v>0</v>
       </c>
       <c r="R83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S83" t="n">
         <v>0</v>
@@ -6982,7 +6982,7 @@
         <v>1</v>
       </c>
       <c r="L84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M84" t="n">
         <v>0</v>
@@ -7144,10 +7144,10 @@
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P86" t="n">
         <v>0</v>
@@ -7759,7 +7759,7 @@
         </is>
       </c>
       <c r="K94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L94" t="n">
         <v>0</v>
@@ -7837,7 +7837,7 @@
         </is>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
